--- a/Gadget Audio Video Game.xlsx
+++ b/Gadget Audio Video Game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10020" windowHeight="8190"/>
+    <workbookView windowWidth="20385" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,6 +164,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,121 +233,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,15 +307,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,13 +323,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,169 +347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +516,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +559,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -570,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,177 +608,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1086,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A16" sqref="A16:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>

--- a/Gadget Audio Video Game.xlsx
+++ b/Gadget Audio Video Game.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8610"/>
+    <workbookView windowWidth="20385" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>Garmin</t>
+  </si>
+  <si>
+    <t>Gadget</t>
   </si>
   <si>
     <t>Media Player</t>
@@ -144,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,27 +168,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -202,23 +185,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,12 +238,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -256,45 +284,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,181 +327,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,153 +617,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1083,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1103,11 +1110,11 @@
       <c r="A2">
         <v>836</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
@@ -1281,7 +1288,7 @@
       <c r="A24">
         <v>588</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1289,7 +1296,7 @@
       <c r="A25">
         <v>589</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1297,7 +1304,7 @@
       <c r="A26">
         <v>590</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1305,7 +1312,7 @@
       <c r="A27">
         <v>591</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1341,25 +1348,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
+        <v>410</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>401</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>662</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1367,7 +1374,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -1375,7 +1382,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1383,7 +1390,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1391,7 +1398,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1399,18 +1406,26 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40">
+        <v>669</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
         <v>202</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1423,4 +1438,86 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="26.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>664</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(A1,",",A2)</f>
+        <v>662,664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>665</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B7" si="0">CONCATENATE(B2,",",A3)</f>
+        <v>662,664,665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>666</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>662,664,665,666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>667</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>662,664,665,666,667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>668</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>662,664,665,666,667,668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>669</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>662,664,665,666,667,668,669</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>